--- a/data/output/FV2310_FV2304/COMDIS/29001.xlsx
+++ b/data/output/FV2310_FV2304/COMDIS/29001.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="218">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="218">
+  <si>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -801,6 +801,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U80" totalsRowShown="0">
+  <autoFilter ref="A1:U80"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2304"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="3" name="Segment_FV2304"/>
+    <tableColumn id="4" name="Datenelement_FV2304"/>
+    <tableColumn id="5" name="Segment ID_FV2304"/>
+    <tableColumn id="6" name="Code_FV2304"/>
+    <tableColumn id="7" name="Qualifier_FV2304"/>
+    <tableColumn id="8" name="Beschreibung_FV2304"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="10" name="Bedingung_FV2304"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2310"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="14" name="Segment_FV2310"/>
+    <tableColumn id="15" name="Datenelement_FV2310"/>
+    <tableColumn id="16" name="Segment ID_FV2310"/>
+    <tableColumn id="17" name="Code_FV2310"/>
+    <tableColumn id="18" name="Qualifier_FV2310"/>
+    <tableColumn id="19" name="Beschreibung_FV2310"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="21" name="Bedingung_FV2310"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1090,7 +1120,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4753,5 +4786,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2310_FV2304/COMDIS/29001.xlsx
+++ b/data/output/FV2310_FV2304/COMDIS/29001.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="296">
   <si>
     <t>#</t>
   </si>
@@ -2794,48 +2794,46 @@
       <c r="V29" s="9"/>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5" t="s">
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="K30" s="5"/>
-      <c r="L30" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="M30" s="5" t="s">
+      <c r="K30" s="2"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N30" s="5" t="s">
+      <c r="N30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O30" s="5" t="s">
+      <c r="O30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5" t="s">
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="V30" s="5"/>
+      <c r="V30" s="2"/>
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="5" t="s">
@@ -2865,9 +2863,7 @@
         <v>167</v>
       </c>
       <c r="K31" s="5"/>
-      <c r="L31" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="L31" s="4"/>
       <c r="M31" s="5" t="s">
         <v>28</v>
       </c>
@@ -2919,9 +2915,7 @@
         <v>167</v>
       </c>
       <c r="K32" s="5"/>
-      <c r="L32" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="L32" s="4"/>
       <c r="M32" s="5" t="s">
         <v>28</v>
       </c>
@@ -2946,48 +2940,46 @@
       <c r="V32" s="5"/>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5" t="s">
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="K33" s="5"/>
-      <c r="L33" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="M33" s="5" t="s">
+      <c r="K33" s="2"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N33" s="5" t="s">
+      <c r="N33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O33" s="5" t="s">
+      <c r="O33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5" t="s">
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="V33" s="5"/>
+      <c r="V33" s="2"/>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="5" t="s">
@@ -3015,9 +3007,7 @@
         <v>167</v>
       </c>
       <c r="K34" s="5"/>
-      <c r="L34" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="L34" s="4"/>
       <c r="M34" s="5" t="s">
         <v>29</v>
       </c>
@@ -3069,9 +3059,7 @@
         <v>170</v>
       </c>
       <c r="K35" s="5"/>
-      <c r="L35" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="L35" s="4"/>
       <c r="M35" s="5" t="s">
         <v>29</v>
       </c>
@@ -3125,9 +3113,7 @@
         <v>170</v>
       </c>
       <c r="K36" s="5"/>
-      <c r="L36" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="L36" s="4"/>
       <c r="M36" s="5" t="s">
         <v>29</v>
       </c>
@@ -3181,9 +3167,7 @@
         <v>170</v>
       </c>
       <c r="K37" s="5"/>
-      <c r="L37" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="L37" s="4"/>
       <c r="M37" s="5" t="s">
         <v>29</v>
       </c>
@@ -3237,9 +3221,7 @@
         <v>170</v>
       </c>
       <c r="K38" s="5"/>
-      <c r="L38" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="L38" s="4"/>
       <c r="M38" s="5" t="s">
         <v>29</v>
       </c>
@@ -3293,9 +3275,7 @@
         <v>170</v>
       </c>
       <c r="K39" s="5"/>
-      <c r="L39" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="L39" s="4"/>
       <c r="M39" s="5" t="s">
         <v>29</v>
       </c>
@@ -3322,44 +3302,42 @@
       <c r="V39" s="5"/>
     </row>
     <row r="40" spans="1:22">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5" t="s">
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="K40" s="5"/>
-      <c r="L40" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="M40" s="5" t="s">
+      <c r="K40" s="2"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N40" s="5" t="s">
+      <c r="N40" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5" t="s">
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="V40" s="5"/>
+      <c r="V40" s="2"/>
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="5" t="s">
@@ -3383,9 +3361,7 @@
         <v>166</v>
       </c>
       <c r="K41" s="5"/>
-      <c r="L41" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="L41" s="4"/>
       <c r="M41" s="5" t="s">
         <v>30</v>
       </c>
@@ -3433,9 +3409,7 @@
         <v>167</v>
       </c>
       <c r="K42" s="5"/>
-      <c r="L42" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="L42" s="4"/>
       <c r="M42" s="5" t="s">
         <v>30</v>
       </c>
@@ -3545,9 +3519,7 @@
         <v>167</v>
       </c>
       <c r="K44" s="5"/>
-      <c r="L44" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="L44" s="4"/>
       <c r="M44" s="5" t="s">
         <v>30</v>
       </c>
@@ -3601,9 +3573,7 @@
         <v>167</v>
       </c>
       <c r="K45" s="5"/>
-      <c r="L45" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="L45" s="4"/>
       <c r="M45" s="5" t="s">
         <v>30</v>
       </c>
@@ -3672,44 +3642,42 @@
       <c r="V46" s="9"/>
     </row>
     <row r="47" spans="1:22">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5" t="s">
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="K47" s="5"/>
-      <c r="L47" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="M47" s="5" t="s">
+      <c r="K47" s="2"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N47" s="5" t="s">
+      <c r="N47" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5" t="s">
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="V47" s="5"/>
+      <c r="V47" s="2"/>
     </row>
     <row r="48" spans="1:22">
       <c r="A48" s="5" t="s">
@@ -3733,9 +3701,7 @@
         <v>166</v>
       </c>
       <c r="K48" s="5"/>
-      <c r="L48" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="L48" s="4"/>
       <c r="M48" s="5" t="s">
         <v>31</v>
       </c>
@@ -3783,9 +3749,7 @@
         <v>167</v>
       </c>
       <c r="K49" s="5"/>
-      <c r="L49" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="L49" s="4"/>
       <c r="M49" s="5" t="s">
         <v>31</v>
       </c>
@@ -3839,9 +3803,7 @@
       <c r="K50" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="L50" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="L50" s="4"/>
       <c r="M50" s="5" t="s">
         <v>31</v>
       </c>
@@ -3868,48 +3830,46 @@
       </c>
     </row>
     <row r="51" spans="1:22">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5" t="s">
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="K51" s="5"/>
-      <c r="L51" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="M51" s="5" t="s">
+      <c r="K51" s="2"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N51" s="5" t="s">
+      <c r="N51" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O51" s="5" t="s">
+      <c r="O51" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5" t="s">
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="V51" s="5"/>
+      <c r="V51" s="2"/>
     </row>
     <row r="52" spans="1:22">
       <c r="A52" s="5" t="s">
@@ -3939,9 +3899,7 @@
         <v>167</v>
       </c>
       <c r="K52" s="5"/>
-      <c r="L52" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="L52" s="4"/>
       <c r="M52" s="5" t="s">
         <v>32</v>
       </c>
@@ -3995,9 +3953,7 @@
       <c r="K53" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="L53" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="L53" s="4"/>
       <c r="M53" s="5" t="s">
         <v>32</v>
       </c>
@@ -4024,44 +3980,42 @@
       </c>
     </row>
     <row r="54" spans="1:22">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5" t="s">
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="K54" s="5"/>
-      <c r="L54" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="M54" s="5" t="s">
+      <c r="K54" s="2"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N54" s="5" t="s">
+      <c r="N54" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="5" t="s">
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="V54" s="5"/>
+      <c r="V54" s="2"/>
     </row>
     <row r="55" spans="1:22">
       <c r="A55" s="5" t="s">
@@ -4085,9 +4039,7 @@
         <v>166</v>
       </c>
       <c r="K55" s="5"/>
-      <c r="L55" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="L55" s="4"/>
       <c r="M55" s="5" t="s">
         <v>33</v>
       </c>
@@ -4133,9 +4085,7 @@
         <v>167</v>
       </c>
       <c r="K56" s="5"/>
-      <c r="L56" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="L56" s="4"/>
       <c r="M56" s="5" t="s">
         <v>33</v>
       </c>
@@ -4519,9 +4469,7 @@
         <v>167</v>
       </c>
       <c r="K64" s="5"/>
-      <c r="L64" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="L64" s="4"/>
       <c r="M64" s="5" t="s">
         <v>34</v>
       </c>
@@ -4575,9 +4523,7 @@
         <v>175</v>
       </c>
       <c r="K65" s="5"/>
-      <c r="L65" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="L65" s="4"/>
       <c r="M65" s="5" t="s">
         <v>34</v>
       </c>
@@ -4631,9 +4577,7 @@
         <v>176</v>
       </c>
       <c r="K66" s="5"/>
-      <c r="L66" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="L66" s="4"/>
       <c r="M66" s="5" t="s">
         <v>34</v>
       </c>
@@ -4969,9 +4913,7 @@
         <v>167</v>
       </c>
       <c r="K72" s="5"/>
-      <c r="L72" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="L72" s="4"/>
       <c r="M72" s="5" t="s">
         <v>34</v>
       </c>
@@ -5021,9 +4963,7 @@
         <v>167</v>
       </c>
       <c r="K73" s="5"/>
-      <c r="L73" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="L73" s="4"/>
       <c r="M73" s="5" t="s">
         <v>34</v>
       </c>
@@ -5073,9 +5013,7 @@
         <v>167</v>
       </c>
       <c r="K74" s="5"/>
-      <c r="L74" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="L74" s="4"/>
       <c r="M74" s="5" t="s">
         <v>34</v>
       </c>
@@ -5175,9 +5113,7 @@
         <v>167</v>
       </c>
       <c r="K76" s="5"/>
-      <c r="L76" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="L76" s="4"/>
       <c r="M76" s="5" t="s">
         <v>35</v>
       </c>
@@ -5229,9 +5165,7 @@
         <v>167</v>
       </c>
       <c r="K77" s="5"/>
-      <c r="L77" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="L77" s="4"/>
       <c r="M77" s="5" t="s">
         <v>35</v>
       </c>
@@ -5256,44 +5190,42 @@
       <c r="V77" s="5"/>
     </row>
     <row r="78" spans="1:22">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5" t="s">
+      <c r="C78" s="2"/>
+      <c r="D78" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5" t="s">
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="K78" s="5"/>
-      <c r="L78" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="M78" s="5" t="s">
+      <c r="K78" s="2"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N78" s="5"/>
-      <c r="O78" s="5" t="s">
+      <c r="N78" s="2"/>
+      <c r="O78" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P78" s="5"/>
-      <c r="Q78" s="5"/>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
-      <c r="T78" s="5"/>
-      <c r="U78" s="5" t="s">
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="V78" s="5"/>
+      <c r="V78" s="2"/>
     </row>
     <row r="79" spans="1:22">
       <c r="A79" s="5" t="s">
@@ -5319,9 +5251,7 @@
         <v>167</v>
       </c>
       <c r="K79" s="5"/>
-      <c r="L79" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="L79" s="4"/>
       <c r="M79" s="5" t="s">
         <v>36</v>
       </c>
@@ -5367,9 +5297,7 @@
         <v>167</v>
       </c>
       <c r="K80" s="5"/>
-      <c r="L80" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="L80" s="4"/>
       <c r="M80" s="5" t="s">
         <v>36</v>
       </c>

--- a/data/output/FV2310_FV2304/COMDIS/29001.xlsx
+++ b/data/output/FV2310_FV2304/COMDIS/29001.xlsx
@@ -1490,7 +1490,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N15" s="2"/>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="2" t="s">
+      <c r="M19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N19" s="2"/>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -2816,7 +2816,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -2962,7 +2962,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3322,7 +3322,7 @@
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="2" t="s">
+      <c r="M40" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4000,7 +4000,7 @@
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -4394,23 +4394,23 @@
       </c>
     </row>
     <row r="63" spans="1:22">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
       <c r="J63" s="6" t="s">
         <v>174</v>
       </c>
@@ -4420,20 +4420,20 @@
       <c r="L63" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="M63" s="5" t="s">
+      <c r="M63" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N63" s="5" t="s">
+      <c r="N63" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="O63" s="5" t="s">
+      <c r="O63" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="5"/>
-      <c r="R63" s="5"/>
-      <c r="S63" s="5"/>
-      <c r="T63" s="5"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
       <c r="U63" s="6" t="s">
         <v>209</v>
       </c>
@@ -5038,23 +5038,23 @@
       <c r="V74" s="5"/>
     </row>
     <row r="75" spans="1:22">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
       <c r="J75" s="6" t="s">
         <v>182</v>
       </c>
@@ -5064,20 +5064,20 @@
       <c r="L75" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="M75" s="5" t="s">
+      <c r="M75" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N75" s="5" t="s">
+      <c r="N75" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="O75" s="5" t="s">
+      <c r="O75" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P75" s="5"/>
-      <c r="Q75" s="5"/>
-      <c r="R75" s="5"/>
-      <c r="S75" s="5"/>
-      <c r="T75" s="5"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
       <c r="U75" s="6" t="s">
         <v>215</v>
       </c>
@@ -5210,7 +5210,7 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N78" s="2"/>
